--- a/gun informations.xlsx
+++ b/gun informations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kingc\web\multiplayer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B1E8F9-B5BC-4568-9FED-9FFD9978BA5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4782AF-20BA-4B15-B6E3-7B3A36ABDC1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-310" yWindow="3360" windowWidth="38400" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="73">
   <si>
     <t>Special features</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,10 +55,6 @@
   </si>
   <si>
     <t>AWM: bullet speed never decreases</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Railgun: pierce walls and entities</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -304,6 +300,46 @@
   </si>
   <si>
     <t>CrossBow: draws bullet differently</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Railgun: pierce walls and entities / also pierce armor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARMOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reduce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>absorb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>damage absorbed by 0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">reduce damage by 10% </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>absorbed damage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reduced DPR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Armor effects - damage per round</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pierce</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -404,7 +440,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -489,8 +525,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -518,11 +560,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -575,9 +626,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -617,6 +665,20 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -897,10 +959,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T34"/>
+  <dimension ref="A1:Y34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -911,92 +973,103 @@
     <col min="15" max="15" width="8.5" customWidth="1"/>
     <col min="16" max="16" width="16.25" customWidth="1"/>
     <col min="17" max="17" width="10.5" customWidth="1"/>
+    <col min="20" max="20" width="11.25" customWidth="1"/>
+    <col min="21" max="21" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>51</v>
-      </c>
-      <c r="L1" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="N1" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O1" s="2"/>
-      <c r="P1" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q1" s="24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="P1" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q1" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="T1" s="36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A2" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="D2" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="F2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="20" t="s">
+      <c r="G2" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="J2" s="19" t="s">
         <v>7</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="20" t="s">
-        <v>8</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="N2" s="18" t="s">
-        <v>49</v>
+        <v>9</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="N2" s="35" t="s">
+        <v>48</v>
       </c>
       <c r="O2" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="P2" s="19" t="s">
-        <v>45</v>
+        <v>39</v>
+      </c>
+      <c r="P2" s="18" t="s">
+        <v>44</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="R2" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="T2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R2" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="T2" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="U2" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A3" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" s="12">
         <v>0</v>
@@ -1011,7 +1084,7 @@
         <v>1000</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H3" s="11">
         <v>2</v>
@@ -1020,7 +1093,7 @@
         <v>1800</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K3" s="11"/>
       <c r="L3" s="11">
@@ -1039,21 +1112,28 @@
         <f>ROUND(8/(D3*E3),1)</f>
         <v>2.7</v>
       </c>
-      <c r="P3" s="11">
-        <v>0</v>
-      </c>
+      <c r="P3" s="11"/>
       <c r="Q3" s="11"/>
-      <c r="R3" s="27" t="s">
-        <v>56</v>
+      <c r="R3" s="26" t="s">
+        <v>55</v>
       </c>
       <c r="S3" s="11"/>
-      <c r="T3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="T3" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="U3" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A4" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="8">
         <v>650</v>
@@ -1065,7 +1145,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="8">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F4" s="8">
         <v>100</v>
@@ -1080,24 +1160,24 @@
         <v>1400</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K4" s="8"/>
       <c r="L4" s="11">
         <f t="shared" ref="L4:L5" si="0">ROUND(D4*E4/F4*1000,2)</f>
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="M4" s="11">
         <f t="shared" ref="M4:M5" si="1">ROUND(D4*E4/(F4+I4)*1000,2)</f>
-        <v>5.33</v>
+        <v>6.67</v>
       </c>
       <c r="N4" s="11">
         <f t="shared" ref="N4:N5" si="2">D4*E4*H4</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O4" s="11">
         <f t="shared" ref="O4:O5" si="3">ROUND(8/(D4*E4),1)</f>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="P4" s="11">
         <f t="shared" ref="P4" si="4">-(FLOOR(G4/6,1)-1)</f>
@@ -1107,20 +1187,31 @@
         <f>ROUND(C4/G4,3)</f>
         <v>0</v>
       </c>
-      <c r="R4" s="26" t="s">
-        <v>55</v>
+      <c r="R4" s="25" t="s">
+        <v>54</v>
       </c>
       <c r="S4" s="8"/>
-      <c r="T4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="T4" s="11">
+        <f t="shared" ref="T4:T24" si="5" xml:space="preserve"> D4*E4*9/10</f>
+        <v>9</v>
+      </c>
+      <c r="U4" s="11">
+        <f t="shared" ref="U4:U24" si="6">D4*(E4-0.2)</f>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A5" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5" s="11">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="C5" s="11">
         <v>0</v>
@@ -1129,7 +1220,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5" s="11">
         <v>2100</v>
@@ -1138,46 +1229,59 @@
         <v>6</v>
       </c>
       <c r="H5" s="11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I5" s="11">
         <v>1800</v>
       </c>
-      <c r="J5" s="31" t="s">
-        <v>61</v>
+      <c r="J5" s="30" t="s">
+        <v>60</v>
       </c>
       <c r="K5" s="11"/>
       <c r="L5" s="11">
         <f t="shared" si="0"/>
-        <v>0.95</v>
+        <v>1.43</v>
       </c>
       <c r="M5" s="11">
         <f t="shared" si="1"/>
-        <v>0.51</v>
+        <v>0.77</v>
       </c>
       <c r="N5" s="11">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="O5" s="11">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="P5" s="11"/>
-      <c r="Q5" s="11">
-        <v>0</v>
-      </c>
-      <c r="R5" s="28" t="s">
-        <v>57</v>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="27" t="s">
+        <v>56</v>
       </c>
       <c r="S5" s="11"/>
-      <c r="T5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="T5" s="11">
+        <f t="shared" si="5"/>
+        <v>2.7</v>
+      </c>
+      <c r="U5" s="11">
+        <f t="shared" si="6"/>
+        <v>2.8</v>
+      </c>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A7" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="11">
         <v>2000</v>
@@ -1235,10 +1339,21 @@
         <v>55</v>
       </c>
       <c r="S7" s="11"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="T7" s="11">
+        <f t="shared" si="5"/>
+        <v>5.4</v>
+      </c>
+      <c r="U7" s="11">
+        <f t="shared" si="6"/>
+        <v>5.8</v>
+      </c>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A8" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="11">
         <v>1000</v>
@@ -1292,14 +1407,25 @@
         <f>ROUND(C8/G8,3)</f>
         <v>3.1E-2</v>
       </c>
-      <c r="R8" s="28" t="s">
-        <v>57</v>
+      <c r="R8" s="27" t="s">
+        <v>56</v>
       </c>
       <c r="S8" s="11"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="T8" s="11">
+        <f t="shared" si="5"/>
+        <v>2.7</v>
+      </c>
+      <c r="U8" s="11">
+        <f t="shared" si="6"/>
+        <v>2.8</v>
+      </c>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A9" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="11">
         <v>1200</v>
@@ -1353,17 +1479,28 @@
         <f>ROUND(C9/G9,3)</f>
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="R9" s="28" t="s">
-        <v>57</v>
+      <c r="R9" s="27" t="s">
+        <v>56</v>
       </c>
       <c r="S9" s="11"/>
-      <c r="T9" t="s">
+      <c r="T9" s="11">
+        <f t="shared" si="5"/>
+        <v>3.6</v>
+      </c>
+      <c r="U9" s="11">
+        <f t="shared" si="6"/>
+        <v>3.8</v>
+      </c>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A10" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="11">
         <v>2400</v>
@@ -1417,12 +1554,23 @@
         <f>ROUND(C10/G10,3)</f>
         <v>0</v>
       </c>
-      <c r="R10" s="27" t="s">
-        <v>56</v>
+      <c r="R10" s="26" t="s">
+        <v>55</v>
       </c>
       <c r="S10" s="11"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="T10" s="11">
+        <f t="shared" si="5"/>
+        <v>7.2</v>
+      </c>
+      <c r="U10" s="11">
+        <f t="shared" si="6"/>
+        <v>7.8</v>
+      </c>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A11" s="9"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -1440,12 +1588,17 @@
       <c r="O11" s="11"/>
       <c r="P11" s="11"/>
       <c r="Q11" s="11"/>
-      <c r="R11" s="25"/>
+      <c r="R11" s="24"/>
       <c r="S11" s="11"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A12" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="11">
         <v>500</v>
@@ -1499,17 +1652,28 @@
         <f>ROUND(C12/G12,3)</f>
         <v>0.2</v>
       </c>
-      <c r="R12" s="28" t="s">
-        <v>57</v>
+      <c r="R12" s="27" t="s">
+        <v>56</v>
       </c>
       <c r="S12" s="11"/>
-      <c r="T12" t="s">
+      <c r="T12" s="11">
+        <f t="shared" si="5"/>
+        <v>0.9</v>
+      </c>
+      <c r="U12" s="11">
+        <f t="shared" si="6"/>
+        <v>0.8</v>
+      </c>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A13" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="11">
         <v>800</v>
@@ -1563,17 +1727,28 @@
         <f>ROUND(C13/G13,3)</f>
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="R13" s="27" t="s">
-        <v>56</v>
+      <c r="R13" s="26" t="s">
+        <v>55</v>
       </c>
       <c r="S13" s="11"/>
-      <c r="T13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="T13" s="11">
+        <f t="shared" si="5"/>
+        <v>0.9</v>
+      </c>
+      <c r="U13" s="11">
+        <f t="shared" si="6"/>
+        <v>0.8</v>
+      </c>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A14" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" s="11">
         <v>1000</v>
@@ -1627,14 +1802,25 @@
         <f>ROUND(C14/G14,3)</f>
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="R14" s="27" t="s">
-        <v>56</v>
+      <c r="R14" s="26" t="s">
+        <v>55</v>
       </c>
       <c r="S14" s="11"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="T14" s="11">
+        <f t="shared" si="5"/>
+        <v>0.9</v>
+      </c>
+      <c r="U14" s="11">
+        <f t="shared" si="6"/>
+        <v>0.8</v>
+      </c>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="11"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A15" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" s="11">
         <v>700</v>
@@ -1688,14 +1874,25 @@
         <f>ROUND(C15/G15,3)</f>
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="R15" s="28" t="s">
-        <v>57</v>
+      <c r="R15" s="27" t="s">
+        <v>56</v>
       </c>
       <c r="S15" s="11"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="T15" s="11">
+        <f t="shared" si="5"/>
+        <v>0.9</v>
+      </c>
+      <c r="U15" s="11">
+        <f t="shared" si="6"/>
+        <v>0.8</v>
+      </c>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A16" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" s="11">
         <v>650</v>
@@ -1749,12 +1946,23 @@
         <f>ROUND(C16/G16,3)</f>
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="R16" s="28" t="s">
-        <v>57</v>
+      <c r="R16" s="27" t="s">
+        <v>56</v>
       </c>
       <c r="S16" s="11"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="T16" s="11">
+        <f t="shared" si="5"/>
+        <v>0.9</v>
+      </c>
+      <c r="U16" s="11">
+        <f t="shared" si="6"/>
+        <v>0.8</v>
+      </c>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A17" s="10"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -1772,15 +1980,20 @@
       <c r="O17" s="11"/>
       <c r="P17" s="11"/>
       <c r="Q17" s="11"/>
-      <c r="R17" s="25"/>
+      <c r="R17" s="24"/>
       <c r="S17" s="11"/>
-      <c r="T17" t="s">
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A18" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" s="11">
         <v>260</v>
@@ -1789,7 +2002,7 @@
         <v>5</v>
       </c>
       <c r="D18" s="12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E18" s="11">
         <v>1</v>
@@ -1812,19 +2025,19 @@
       <c r="K18" s="11"/>
       <c r="L18" s="11">
         <f>ROUND(D18*E18/F18*1000,2)</f>
-        <v>33.33</v>
+        <v>27.78</v>
       </c>
       <c r="M18" s="11">
         <f>ROUND(D18*E18/(F18+I18)*1000,2)</f>
-        <v>4.3499999999999996</v>
+        <v>3.62</v>
       </c>
       <c r="N18" s="11">
         <f>D18*E18*H18</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O18" s="11">
         <f>ROUND(8/(D18*E18),1)</f>
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="P18" s="11">
         <f>-(FLOOR(G18/6,1)-1)</f>
@@ -1834,14 +2047,25 @@
         <f>ROUND(C18/G18,3)</f>
         <v>0.5</v>
       </c>
-      <c r="R18" s="28" t="s">
-        <v>57</v>
+      <c r="R18" s="27" t="s">
+        <v>56</v>
       </c>
       <c r="S18" s="11"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="T18" s="11">
+        <f t="shared" si="5"/>
+        <v>4.5</v>
+      </c>
+      <c r="U18" s="11">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="11"/>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A19" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19" s="11">
         <v>300</v>
@@ -1895,14 +2119,25 @@
         <f>ROUND(C19/G19,3)</f>
         <v>0.23100000000000001</v>
       </c>
-      <c r="R19" s="27" t="s">
-        <v>56</v>
+      <c r="R19" s="26" t="s">
+        <v>55</v>
       </c>
       <c r="S19" s="11"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="T19" s="11">
+        <f t="shared" si="5"/>
+        <v>2.7</v>
+      </c>
+      <c r="U19" s="11">
+        <f t="shared" si="6"/>
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="11"/>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A20" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B20" s="11">
         <v>400</v>
@@ -1956,12 +2191,23 @@
         <f>ROUND(C20/G20,3)</f>
         <v>0.214</v>
       </c>
-      <c r="R20" s="28" t="s">
-        <v>57</v>
+      <c r="R20" s="27" t="s">
+        <v>56</v>
       </c>
       <c r="S20" s="11"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="T20" s="11">
+        <f t="shared" si="5"/>
+        <v>1.8</v>
+      </c>
+      <c r="U20" s="11">
+        <f t="shared" si="6"/>
+        <v>1.6</v>
+      </c>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="11"/>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A21" s="10"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -1979,12 +2225,17 @@
       <c r="O21" s="11"/>
       <c r="P21" s="11"/>
       <c r="Q21" s="11"/>
-      <c r="R21" s="25"/>
+      <c r="R21" s="24"/>
       <c r="S21" s="11"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="11"/>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A22" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22" s="11">
         <v>680</v>
@@ -2011,7 +2262,7 @@
         <v>2800</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K22" s="11"/>
       <c r="L22" s="11">
@@ -2038,14 +2289,25 @@
         <f>ROUND(C22/G22,3)</f>
         <v>0.13300000000000001</v>
       </c>
-      <c r="R22" s="28" t="s">
-        <v>57</v>
+      <c r="R22" s="27" t="s">
+        <v>56</v>
       </c>
       <c r="S22" s="11"/>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="T22" s="11">
+        <f t="shared" si="5"/>
+        <v>0.45</v>
+      </c>
+      <c r="U22" s="11">
+        <f t="shared" si="6"/>
+        <v>0.3</v>
+      </c>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11"/>
+      <c r="X22" s="11"/>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A23" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" s="11">
         <v>600</v>
@@ -2072,7 +2334,7 @@
         <v>2600</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K23" s="11"/>
       <c r="L23" s="11">
@@ -2099,14 +2361,25 @@
         <f>ROUND(C23/G23,3)</f>
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="R23" s="28" t="s">
-        <v>57</v>
+      <c r="R23" s="27" t="s">
+        <v>56</v>
       </c>
       <c r="S23" s="11"/>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="T23" s="11">
+        <f t="shared" si="5"/>
+        <v>0.45</v>
+      </c>
+      <c r="U23" s="11">
+        <f t="shared" si="6"/>
+        <v>0.3</v>
+      </c>
+      <c r="V23" s="11"/>
+      <c r="W23" s="11"/>
+      <c r="X23" s="11"/>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A24" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B24" s="11">
         <v>650</v>
@@ -2133,7 +2406,7 @@
         <v>2100</v>
       </c>
       <c r="J24" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K24" s="11"/>
       <c r="L24" s="11">
@@ -2160,12 +2433,23 @@
         <f>ROUND(C24/G24,3)</f>
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="R24" s="28" t="s">
-        <v>57</v>
+      <c r="R24" s="27" t="s">
+        <v>56</v>
       </c>
       <c r="S24" s="11"/>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="T24" s="11">
+        <f t="shared" si="5"/>
+        <v>0.45</v>
+      </c>
+      <c r="U24" s="11">
+        <f t="shared" si="6"/>
+        <v>0.3</v>
+      </c>
+      <c r="V24" s="11"/>
+      <c r="W24" s="11"/>
+      <c r="X24" s="11"/>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -2183,12 +2467,17 @@
       <c r="O25" s="11"/>
       <c r="P25" s="11"/>
       <c r="Q25" s="11"/>
-      <c r="R25" s="25"/>
+      <c r="R25" s="24"/>
       <c r="S25" s="11"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="T25" s="11"/>
+      <c r="U25" s="11"/>
+      <c r="V25" s="11"/>
+      <c r="W25" s="11"/>
+      <c r="X25" s="11"/>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A26" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -2206,15 +2495,20 @@
       <c r="O26" s="11"/>
       <c r="P26" s="11"/>
       <c r="Q26" s="11"/>
-      <c r="R26" s="25"/>
+      <c r="R26" s="24"/>
       <c r="S26" s="11"/>
-      <c r="T26" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="T26" s="11"/>
+      <c r="U26" s="11"/>
+      <c r="V26" s="11"/>
+      <c r="W26" s="11"/>
+      <c r="X26" s="11"/>
+      <c r="Y26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A27" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" s="11">
         <v>12</v>
@@ -2235,7 +2529,7 @@
         <v>3</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I27" s="11">
         <v>0</v>
@@ -2257,12 +2551,17 @@
       </c>
       <c r="P27" s="11"/>
       <c r="Q27" s="11"/>
-      <c r="R27" s="25"/>
+      <c r="R27" s="24"/>
       <c r="S27" s="11"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="T27" s="11"/>
+      <c r="U27" s="11"/>
+      <c r="V27" s="11"/>
+      <c r="W27" s="11"/>
+      <c r="X27" s="11"/>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A28" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" s="11">
         <v>15</v>
@@ -2283,7 +2582,7 @@
         <v>3</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I28" s="11">
         <v>0</v>
@@ -2305,12 +2604,17 @@
       </c>
       <c r="P28" s="11"/>
       <c r="Q28" s="11"/>
-      <c r="R28" s="25"/>
+      <c r="R28" s="24"/>
       <c r="S28" s="11"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="T28" s="11"/>
+      <c r="U28" s="11"/>
+      <c r="V28" s="11"/>
+      <c r="W28" s="11"/>
+      <c r="X28" s="11"/>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A29" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B29" s="11">
         <v>18</v>
@@ -2331,7 +2635,7 @@
         <v>3</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I29" s="11">
         <v>0</v>
@@ -2339,7 +2643,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="11"/>
       <c r="L29" s="11">
-        <f t="shared" ref="L29" si="5">ROUND(D29*E29/F29*1000,3)</f>
+        <f t="shared" ref="L29" si="7">ROUND(D29*E29/F29*1000,3)</f>
         <v>2</v>
       </c>
       <c r="M29" s="11">
@@ -2353,10 +2657,15 @@
       </c>
       <c r="P29" s="11"/>
       <c r="Q29" s="11"/>
-      <c r="R29" s="25"/>
+      <c r="R29" s="24"/>
       <c r="S29" s="11"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="T29" s="11"/>
+      <c r="U29" s="11"/>
+      <c r="V29" s="11"/>
+      <c r="W29" s="11"/>
+      <c r="X29" s="11"/>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A30" s="4"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -2366,9 +2675,11 @@
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A31" s="4"/>
-      <c r="B31" s="2"/>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A31" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="23"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -2376,9 +2687,13 @@
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A32" s="4"/>
-      <c r="B32" s="2"/>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A32" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" s="31" t="s">
+        <v>68</v>
+      </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -2387,8 +2702,12 @@
       <c r="H32" s="2"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A33" s="4"/>
-      <c r="B33" s="2"/>
+      <c r="A33" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" s="31" t="s">
+        <v>67</v>
+      </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>

--- a/gun informations.xlsx
+++ b/gun informations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kingc\web\multiplayer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4782AF-20BA-4B15-B6E3-7B3A36ABDC1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{751D0458-9675-49DF-9E30-FC315FA0DAEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-310" yWindow="3360" windowWidth="38400" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1060" windowWidth="38400" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -327,10 +327,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>absorbed damage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>reduced DPR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -340,6 +336,10 @@
   </si>
   <si>
     <t>pierce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>absorbed DPR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -962,7 +962,7 @@
   <dimension ref="A1:Y34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="U13" sqref="U13"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -998,7 +998,7 @@
         <v>46</v>
       </c>
       <c r="T1" s="36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.45">
@@ -1055,10 +1055,10 @@
         <v>53</v>
       </c>
       <c r="T2" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U2" s="34" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="Y2" t="s">
         <v>0</v>
@@ -1119,10 +1119,10 @@
       </c>
       <c r="S3" s="11"/>
       <c r="T3" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="U3" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="V3" s="11"/>
       <c r="W3" s="11"/>
@@ -2622,7 +2622,7 @@
       <c r="C29" s="11">
         <v>0</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="11">
         <v>1</v>
       </c>
       <c r="E29" s="11">

--- a/gun informations.xlsx
+++ b/gun informations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kingc\web\multiplayer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{751D0458-9675-49DF-9E30-FC315FA0DAEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4539504-FA84-4428-88C6-F883562E2FD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1060" windowWidth="38400" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="82">
   <si>
     <t>Special features</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -342,12 +342,48 @@
     <t>absorbed DPR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>STK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reduced STK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>absorbed STK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>light weapons (other)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effective to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>damage&gt;3: reduce 30%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>damage&gt;0.5: absorb 0.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heavy weapons (7mm guns / damage&gt;3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -439,8 +475,53 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4" tint="0.39997558519241921"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -531,6 +612,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -573,7 +660,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -679,6 +766,45 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -961,8 +1087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Y19" sqref="Y19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -973,8 +1099,10 @@
     <col min="15" max="15" width="8.5" customWidth="1"/>
     <col min="16" max="16" width="16.25" customWidth="1"/>
     <col min="17" max="17" width="10.5" customWidth="1"/>
-    <col min="20" max="20" width="11.25" customWidth="1"/>
-    <col min="21" max="21" width="11.33203125" customWidth="1"/>
+    <col min="20" max="20" width="9.75" customWidth="1"/>
+    <col min="21" max="21" width="9.25" customWidth="1"/>
+    <col min="22" max="22" width="10.1640625" customWidth="1"/>
+    <col min="23" max="23" width="9.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.45">
@@ -990,7 +1118,9 @@
       <c r="N1" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="O1" s="2"/>
+      <c r="O1" s="37" t="s">
+        <v>73</v>
+      </c>
       <c r="P1" s="22" t="s">
         <v>52</v>
       </c>
@@ -1057,8 +1187,14 @@
       <c r="T2" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="U2" s="34" t="s">
+      <c r="U2" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="V2" s="34" t="s">
         <v>72</v>
+      </c>
+      <c r="W2" s="39" t="s">
+        <v>75</v>
       </c>
       <c r="Y2" t="s">
         <v>0</v>
@@ -1108,7 +1244,7 @@
         <f>D3*E3*H3</f>
         <v>6</v>
       </c>
-      <c r="O3" s="11">
+      <c r="O3" s="42">
         <f>ROUND(8/(D3*E3),1)</f>
         <v>2.7</v>
       </c>
@@ -1124,8 +1260,12 @@
       <c r="U3" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
+      <c r="V3" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="W3" s="11" t="s">
+        <v>71</v>
+      </c>
       <c r="X3" s="11"/>
       <c r="Y3" t="s">
         <v>63</v>
@@ -1175,7 +1315,7 @@
         <f t="shared" ref="N4:N5" si="2">D4*E4*H4</f>
         <v>10</v>
       </c>
-      <c r="O4" s="11">
+      <c r="O4" s="48">
         <f t="shared" ref="O4:O5" si="3">ROUND(8/(D4*E4),1)</f>
         <v>0.8</v>
       </c>
@@ -1192,15 +1332,21 @@
       </c>
       <c r="S4" s="8"/>
       <c r="T4" s="11">
-        <f t="shared" ref="T4:T24" si="5" xml:space="preserve"> D4*E4*9/10</f>
-        <v>9</v>
-      </c>
-      <c r="U4" s="11">
-        <f t="shared" ref="U4:U24" si="6">D4*(E4-0.2)</f>
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
+        <f xml:space="preserve"> D4*E4*7/10</f>
+        <v>7</v>
+      </c>
+      <c r="U4" s="43">
+        <f t="shared" ref="U4:U24" si="5">ROUND(8/(T4),2)</f>
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="V4" s="11">
+        <f>D4*(E4-0.4)</f>
+        <v>9.6</v>
+      </c>
+      <c r="W4" s="46">
+        <f>ROUND(8/(V4),2)</f>
+        <v>0.83</v>
+      </c>
       <c r="X4" s="8"/>
       <c r="Y4" t="s">
         <v>62</v>
@@ -1250,7 +1396,7 @@
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="O5" s="11">
+      <c r="O5" s="42">
         <f t="shared" si="3"/>
         <v>2.7</v>
       </c>
@@ -1261,23 +1407,31 @@
       </c>
       <c r="S5" s="11"/>
       <c r="T5" s="11">
+        <f xml:space="preserve"> D5*E5*9/10</f>
+        <v>2.7</v>
+      </c>
+      <c r="U5" s="44">
         <f t="shared" si="5"/>
-        <v>2.7</v>
-      </c>
-      <c r="U5" s="11">
-        <f t="shared" si="6"/>
-        <v>2.8</v>
-      </c>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
+        <v>2.96</v>
+      </c>
+      <c r="V5" s="11">
+        <f t="shared" ref="V5:V20" si="6">D5*(E5-0.4)</f>
+        <v>2.6</v>
+      </c>
+      <c r="W5" s="47">
+        <f t="shared" ref="W5:W24" si="7">ROUND(8/(V5),2)</f>
+        <v>3.08</v>
+      </c>
       <c r="X5" s="11"/>
       <c r="Y5" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
+      <c r="O6" s="49"/>
+      <c r="U6" s="44"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="44"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A7" s="10" t="s">
@@ -1293,7 +1447,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F7" s="11">
         <v>1600</v>
@@ -1313,19 +1467,19 @@
       <c r="K7" s="11"/>
       <c r="L7" s="11">
         <f>ROUND(D7*E7/F7*1000,2)</f>
-        <v>3.75</v>
+        <v>3.13</v>
       </c>
       <c r="M7" s="11">
         <f>ROUND(D7*E7/(F7+I7)*1000,2)</f>
-        <v>1.07</v>
+        <v>0.89</v>
       </c>
       <c r="N7" s="11">
         <f>D7*E7*H7</f>
-        <v>30</v>
-      </c>
-      <c r="O7" s="11">
+        <v>25</v>
+      </c>
+      <c r="O7" s="50">
         <f>ROUND(8/(D7*E7),1)</f>
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="P7" s="11">
         <f>-(FLOOR(G7/6,1)-1)</f>
@@ -1340,15 +1494,21 @@
       </c>
       <c r="S7" s="11"/>
       <c r="T7" s="11">
-        <f t="shared" si="5"/>
-        <v>5.4</v>
-      </c>
-      <c r="U7" s="11">
+        <f xml:space="preserve"> D7*E7*7/10</f>
+        <v>3.5</v>
+      </c>
+      <c r="U7" s="44">
+        <f>ROUND(8/(T7),2)</f>
+        <v>2.29</v>
+      </c>
+      <c r="V7" s="11">
         <f t="shared" si="6"/>
-        <v>5.8</v>
-      </c>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="W7" s="43">
+        <f t="shared" si="7"/>
+        <v>1.74</v>
+      </c>
       <c r="X7" s="11"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.45">
@@ -1395,7 +1555,7 @@
         <f>D8*E8*H8</f>
         <v>42</v>
       </c>
-      <c r="O8" s="11">
+      <c r="O8" s="42">
         <f>ROUND(8/(D8*E8),1)</f>
         <v>2.7</v>
       </c>
@@ -1412,15 +1572,21 @@
       </c>
       <c r="S8" s="11"/>
       <c r="T8" s="11">
+        <f t="shared" ref="T4:T24" si="8" xml:space="preserve"> D8*E8*9/10</f>
+        <v>2.7</v>
+      </c>
+      <c r="U8" s="44">
         <f t="shared" si="5"/>
-        <v>2.7</v>
-      </c>
-      <c r="U8" s="11">
+        <v>2.96</v>
+      </c>
+      <c r="V8" s="11">
         <f t="shared" si="6"/>
-        <v>2.8</v>
-      </c>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
+        <v>2.6</v>
+      </c>
+      <c r="W8" s="47">
+        <f t="shared" si="7"/>
+        <v>3.08</v>
+      </c>
       <c r="X8" s="11"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.45">
@@ -1437,7 +1603,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="11">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="F9" s="11">
         <v>350</v>
@@ -1457,19 +1623,19 @@
       <c r="K9" s="11"/>
       <c r="L9" s="11">
         <f>ROUND(D9*E9/F9*1000,2)</f>
-        <v>11.43</v>
+        <v>10</v>
       </c>
       <c r="M9" s="11">
         <f>ROUND(D9*E9/(F9+I9)*1000,2)</f>
-        <v>1.31</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="N9" s="11">
         <f>D9*E9*H9</f>
-        <v>40</v>
-      </c>
-      <c r="O9" s="11">
+        <v>35</v>
+      </c>
+      <c r="O9" s="42">
         <f>ROUND(8/(D9*E9),1)</f>
-        <v>2</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="P9" s="11">
         <f>-(FLOOR(G9/6,1)-1)</f>
@@ -1484,19 +1650,22 @@
       </c>
       <c r="S9" s="11"/>
       <c r="T9" s="11">
-        <f t="shared" si="5"/>
-        <v>3.6</v>
-      </c>
-      <c r="U9" s="11">
+        <f xml:space="preserve"> D9*E9*7/10</f>
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="U9" s="47">
+        <f>ROUND(8/(T9),2)</f>
+        <v>3.27</v>
+      </c>
+      <c r="V9" s="11">
         <f t="shared" si="6"/>
-        <v>3.8</v>
-      </c>
-      <c r="V9" s="11"/>
-      <c r="W9" s="11"/>
+        <v>3.1</v>
+      </c>
+      <c r="W9" s="44">
+        <f t="shared" si="7"/>
+        <v>2.58</v>
+      </c>
       <c r="X9" s="11"/>
-      <c r="Y9" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A10" s="10" t="s">
@@ -1512,7 +1681,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F10" s="11">
         <v>2000</v>
@@ -1532,19 +1701,19 @@
       <c r="K10" s="11"/>
       <c r="L10" s="11">
         <f>ROUND(D10*E10/F10*1000,2)</f>
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M10" s="11">
         <f>ROUND(D10*E10/(F10+I10)*1000,2)</f>
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="N10" s="11">
         <f>D10*E10*H10</f>
-        <v>56</v>
-      </c>
-      <c r="O10" s="11">
+        <v>63</v>
+      </c>
+      <c r="O10" s="48">
         <f>ROUND(8/(D10*E10),1)</f>
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="P10" s="11">
         <f>-(FLOOR(G10/6,1)-1)</f>
@@ -1559,16 +1728,25 @@
       </c>
       <c r="S10" s="11"/>
       <c r="T10" s="11">
+        <f xml:space="preserve"> D10*E10*7/10</f>
+        <v>6.3</v>
+      </c>
+      <c r="U10" s="43">
         <f t="shared" si="5"/>
-        <v>7.2</v>
-      </c>
-      <c r="U10" s="11">
+        <v>1.27</v>
+      </c>
+      <c r="V10" s="11">
         <f t="shared" si="6"/>
-        <v>7.8</v>
-      </c>
-      <c r="V10" s="11"/>
-      <c r="W10" s="11"/>
+        <v>8.6</v>
+      </c>
+      <c r="W10" s="46">
+        <f t="shared" si="7"/>
+        <v>0.93</v>
+      </c>
       <c r="X10" s="11"/>
+      <c r="Y10" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A11" s="9"/>
@@ -1585,15 +1763,15 @@
       <c r="L11" s="11"/>
       <c r="M11" s="11"/>
       <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
+      <c r="O11" s="42"/>
       <c r="P11" s="11"/>
       <c r="Q11" s="11"/>
       <c r="R11" s="24"/>
       <c r="S11" s="11"/>
       <c r="T11" s="11"/>
-      <c r="U11" s="11"/>
+      <c r="U11" s="44"/>
       <c r="V11" s="11"/>
-      <c r="W11" s="11"/>
+      <c r="W11" s="44"/>
       <c r="X11" s="11"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.45">
@@ -1640,7 +1818,7 @@
         <f>D12*E12*H12</f>
         <v>15</v>
       </c>
-      <c r="O12" s="11">
+      <c r="O12" s="51">
         <f>ROUND(8/(D12*E12),1)</f>
         <v>8</v>
       </c>
@@ -1657,19 +1835,22 @@
       </c>
       <c r="S12" s="11"/>
       <c r="T12" s="11">
+        <f t="shared" si="8"/>
+        <v>0.9</v>
+      </c>
+      <c r="U12" s="45">
         <f t="shared" si="5"/>
-        <v>0.9</v>
-      </c>
-      <c r="U12" s="11">
+        <v>8.89</v>
+      </c>
+      <c r="V12" s="11">
         <f t="shared" si="6"/>
-        <v>0.8</v>
-      </c>
-      <c r="V12" s="11"/>
-      <c r="W12" s="11"/>
+        <v>0.6</v>
+      </c>
+      <c r="W12" s="45">
+        <f t="shared" si="7"/>
+        <v>13.33</v>
+      </c>
       <c r="X12" s="11"/>
-      <c r="Y12" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A13" s="10" t="s">
@@ -1715,7 +1896,7 @@
         <f>D13*E13*H13</f>
         <v>150</v>
       </c>
-      <c r="O13" s="11">
+      <c r="O13" s="51">
         <f>ROUND(8/(D13*E13),1)</f>
         <v>8</v>
       </c>
@@ -1732,18 +1913,24 @@
       </c>
       <c r="S13" s="11"/>
       <c r="T13" s="11">
+        <f t="shared" si="8"/>
+        <v>0.9</v>
+      </c>
+      <c r="U13" s="45">
         <f t="shared" si="5"/>
-        <v>0.9</v>
-      </c>
-      <c r="U13" s="11">
+        <v>8.89</v>
+      </c>
+      <c r="V13" s="11">
         <f t="shared" si="6"/>
-        <v>0.8</v>
-      </c>
-      <c r="V13" s="11"/>
-      <c r="W13" s="11"/>
+        <v>0.6</v>
+      </c>
+      <c r="W13" s="45">
+        <f t="shared" si="7"/>
+        <v>13.33</v>
+      </c>
       <c r="X13" s="11"/>
       <c r="Y13" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.45">
@@ -1790,7 +1977,7 @@
         <f>D14*E14*H14</f>
         <v>10</v>
       </c>
-      <c r="O14" s="11">
+      <c r="O14" s="51">
         <f>ROUND(8/(D14*E14),1)</f>
         <v>8</v>
       </c>
@@ -1807,16 +1994,25 @@
       </c>
       <c r="S14" s="11"/>
       <c r="T14" s="11">
+        <f t="shared" si="8"/>
+        <v>0.9</v>
+      </c>
+      <c r="U14" s="45">
         <f t="shared" si="5"/>
-        <v>0.9</v>
-      </c>
-      <c r="U14" s="11">
+        <v>8.89</v>
+      </c>
+      <c r="V14" s="11">
         <f t="shared" si="6"/>
-        <v>0.8</v>
-      </c>
-      <c r="V14" s="11"/>
-      <c r="W14" s="11"/>
+        <v>0.6</v>
+      </c>
+      <c r="W14" s="45">
+        <f t="shared" si="7"/>
+        <v>13.33</v>
+      </c>
       <c r="X14" s="11"/>
+      <c r="Y14" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A15" s="10" t="s">
@@ -1862,7 +2058,7 @@
         <f>D15*E15*H15</f>
         <v>30</v>
       </c>
-      <c r="O15" s="11">
+      <c r="O15" s="51">
         <f>ROUND(8/(D15*E15),1)</f>
         <v>8</v>
       </c>
@@ -1879,15 +2075,21 @@
       </c>
       <c r="S15" s="11"/>
       <c r="T15" s="11">
+        <f t="shared" si="8"/>
+        <v>0.9</v>
+      </c>
+      <c r="U15" s="45">
         <f t="shared" si="5"/>
-        <v>0.9</v>
-      </c>
-      <c r="U15" s="11">
+        <v>8.89</v>
+      </c>
+      <c r="V15" s="11">
         <f t="shared" si="6"/>
-        <v>0.8</v>
-      </c>
-      <c r="V15" s="11"/>
-      <c r="W15" s="11"/>
+        <v>0.6</v>
+      </c>
+      <c r="W15" s="45">
+        <f t="shared" si="7"/>
+        <v>13.33</v>
+      </c>
       <c r="X15" s="11"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.45">
@@ -1934,7 +2136,7 @@
         <f>D16*E16*H16</f>
         <v>30</v>
       </c>
-      <c r="O16" s="11">
+      <c r="O16" s="51">
         <f>ROUND(8/(D16*E16),1)</f>
         <v>8</v>
       </c>
@@ -1951,15 +2153,21 @@
       </c>
       <c r="S16" s="11"/>
       <c r="T16" s="11">
+        <f t="shared" si="8"/>
+        <v>0.9</v>
+      </c>
+      <c r="U16" s="45">
         <f t="shared" si="5"/>
-        <v>0.9</v>
-      </c>
-      <c r="U16" s="11">
+        <v>8.89</v>
+      </c>
+      <c r="V16" s="11">
         <f t="shared" si="6"/>
-        <v>0.8</v>
-      </c>
-      <c r="V16" s="11"/>
-      <c r="W16" s="11"/>
+        <v>0.6</v>
+      </c>
+      <c r="W16" s="45">
+        <f t="shared" si="7"/>
+        <v>13.33</v>
+      </c>
       <c r="X16" s="11"/>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.45">
@@ -1977,19 +2185,16 @@
       <c r="L17" s="11"/>
       <c r="M17" s="11"/>
       <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
+      <c r="O17" s="42"/>
       <c r="P17" s="11"/>
       <c r="Q17" s="11"/>
       <c r="R17" s="24"/>
       <c r="S17" s="11"/>
       <c r="T17" s="11"/>
-      <c r="U17" s="11"/>
+      <c r="U17" s="44"/>
       <c r="V17" s="11"/>
-      <c r="W17" s="11"/>
+      <c r="W17" s="44"/>
       <c r="X17" s="11"/>
-      <c r="Y17" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A18" s="10" t="s">
@@ -2035,7 +2240,7 @@
         <f>D18*E18*H18</f>
         <v>10</v>
       </c>
-      <c r="O18" s="11">
+      <c r="O18" s="50">
         <f>ROUND(8/(D18*E18),1)</f>
         <v>1.6</v>
       </c>
@@ -2052,16 +2257,25 @@
       </c>
       <c r="S18" s="11"/>
       <c r="T18" s="11">
+        <f t="shared" si="8"/>
+        <v>4.5</v>
+      </c>
+      <c r="U18" s="43">
         <f t="shared" si="5"/>
-        <v>4.5</v>
-      </c>
-      <c r="U18" s="11">
+        <v>1.78</v>
+      </c>
+      <c r="V18" s="11">
         <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="V18" s="11"/>
-      <c r="W18" s="11"/>
+        <v>3</v>
+      </c>
+      <c r="W18" s="44">
+        <f t="shared" si="7"/>
+        <v>2.67</v>
+      </c>
       <c r="X18" s="11"/>
+      <c r="Y18" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A19" s="10" t="s">
@@ -2107,7 +2321,7 @@
         <f>D19*E19*H19</f>
         <v>42</v>
       </c>
-      <c r="O19" s="11">
+      <c r="O19" s="42">
         <f>ROUND(8/(D19*E19),1)</f>
         <v>2.7</v>
       </c>
@@ -2124,15 +2338,21 @@
       </c>
       <c r="S19" s="11"/>
       <c r="T19" s="11">
+        <f t="shared" si="8"/>
+        <v>2.7</v>
+      </c>
+      <c r="U19" s="44">
         <f t="shared" si="5"/>
-        <v>2.7</v>
-      </c>
-      <c r="U19" s="11">
+        <v>2.96</v>
+      </c>
+      <c r="V19" s="11">
         <f t="shared" si="6"/>
-        <v>2.4000000000000004</v>
-      </c>
-      <c r="V19" s="11"/>
-      <c r="W19" s="11"/>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="W19" s="45">
+        <f t="shared" si="7"/>
+        <v>4.4400000000000004</v>
+      </c>
       <c r="X19" s="11"/>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.45">
@@ -2179,7 +2399,7 @@
         <f>D20*E20*H20</f>
         <v>10</v>
       </c>
-      <c r="O20" s="11">
+      <c r="O20" s="51">
         <f>ROUND(8/(D20*E20),1)</f>
         <v>4</v>
       </c>
@@ -2196,15 +2416,21 @@
       </c>
       <c r="S20" s="11"/>
       <c r="T20" s="11">
+        <f t="shared" si="8"/>
+        <v>1.8</v>
+      </c>
+      <c r="U20" s="45">
         <f t="shared" si="5"/>
-        <v>1.8</v>
-      </c>
-      <c r="U20" s="11">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="V20" s="11">
         <f t="shared" si="6"/>
-        <v>1.6</v>
-      </c>
-      <c r="V20" s="11"/>
-      <c r="W20" s="11"/>
+        <v>1.2</v>
+      </c>
+      <c r="W20" s="45">
+        <f t="shared" si="7"/>
+        <v>6.67</v>
+      </c>
       <c r="X20" s="11"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.45">
@@ -2222,15 +2448,15 @@
       <c r="L21" s="11"/>
       <c r="M21" s="11"/>
       <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
+      <c r="O21" s="42"/>
       <c r="P21" s="11"/>
       <c r="Q21" s="11"/>
       <c r="R21" s="24"/>
       <c r="S21" s="11"/>
       <c r="T21" s="11"/>
-      <c r="U21" s="11"/>
+      <c r="U21" s="44"/>
       <c r="V21" s="11"/>
-      <c r="W21" s="11"/>
+      <c r="W21" s="44"/>
       <c r="X21" s="11"/>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.45">
@@ -2277,7 +2503,7 @@
         <f>D22*E22*H22</f>
         <v>12.5</v>
       </c>
-      <c r="O22" s="11">
+      <c r="O22" s="51">
         <f>ROUND(8/(D22*E22),1)</f>
         <v>16</v>
       </c>
@@ -2294,15 +2520,21 @@
       </c>
       <c r="S22" s="11"/>
       <c r="T22" s="11">
+        <f t="shared" si="8"/>
+        <v>0.45</v>
+      </c>
+      <c r="U22" s="45">
         <f t="shared" si="5"/>
-        <v>0.45</v>
-      </c>
-      <c r="U22" s="11">
-        <f t="shared" si="6"/>
+        <v>17.78</v>
+      </c>
+      <c r="V22" s="11">
+        <f>D22*(E22-0.2)</f>
         <v>0.3</v>
       </c>
-      <c r="V22" s="11"/>
-      <c r="W22" s="11"/>
+      <c r="W22" s="45">
+        <f t="shared" si="7"/>
+        <v>26.67</v>
+      </c>
       <c r="X22" s="11"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.45">
@@ -2349,7 +2581,7 @@
         <f>D23*E23*H23</f>
         <v>9.5</v>
       </c>
-      <c r="O23" s="11">
+      <c r="O23" s="51">
         <f>ROUND(8/(D23*E23),1)</f>
         <v>16</v>
       </c>
@@ -2366,15 +2598,21 @@
       </c>
       <c r="S23" s="11"/>
       <c r="T23" s="11">
+        <f t="shared" si="8"/>
+        <v>0.45</v>
+      </c>
+      <c r="U23" s="45">
         <f t="shared" si="5"/>
-        <v>0.45</v>
-      </c>
-      <c r="U23" s="11">
-        <f t="shared" si="6"/>
+        <v>17.78</v>
+      </c>
+      <c r="V23" s="11">
+        <f>D23*(E23-0.2)</f>
         <v>0.3</v>
       </c>
-      <c r="V23" s="11"/>
-      <c r="W23" s="11"/>
+      <c r="W23" s="45">
+        <f t="shared" si="7"/>
+        <v>26.67</v>
+      </c>
       <c r="X23" s="11"/>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.45">
@@ -2421,7 +2659,7 @@
         <f>D24*E24*H24</f>
         <v>15</v>
       </c>
-      <c r="O24" s="11">
+      <c r="O24" s="51">
         <f>ROUND(8/(D24*E24),1)</f>
         <v>16</v>
       </c>
@@ -2438,15 +2676,21 @@
       </c>
       <c r="S24" s="11"/>
       <c r="T24" s="11">
+        <f t="shared" si="8"/>
+        <v>0.45</v>
+      </c>
+      <c r="U24" s="45">
         <f t="shared" si="5"/>
-        <v>0.45</v>
-      </c>
-      <c r="U24" s="11">
-        <f t="shared" si="6"/>
+        <v>17.78</v>
+      </c>
+      <c r="V24" s="11">
+        <f>D24*(E24-0.2)</f>
         <v>0.3</v>
       </c>
-      <c r="V24" s="11"/>
-      <c r="W24" s="11"/>
+      <c r="W24" s="45">
+        <f t="shared" si="7"/>
+        <v>26.67</v>
+      </c>
       <c r="X24" s="11"/>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.45">
@@ -2502,9 +2746,6 @@
       <c r="V26" s="11"/>
       <c r="W26" s="11"/>
       <c r="X26" s="11"/>
-      <c r="Y26" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A27" s="10" t="s">
@@ -2558,6 +2799,9 @@
       <c r="V27" s="11"/>
       <c r="W27" s="11"/>
       <c r="X27" s="11"/>
+      <c r="Y27" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A28" s="10" t="s">
@@ -2643,7 +2887,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="11"/>
       <c r="L29" s="11">
-        <f t="shared" ref="L29" si="7">ROUND(D29*E29/F29*1000,3)</f>
+        <f t="shared" ref="L29" si="9">ROUND(D29*E29/F29*1000,3)</f>
         <v>2</v>
       </c>
       <c r="M29" s="11">
@@ -2679,13 +2923,22 @@
       <c r="A31" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="B31" s="23"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
+      <c r="B31" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A32" s="33" t="s">
@@ -2695,13 +2948,22 @@
         <v>68</v>
       </c>
       <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="D32" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="41"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A33" s="33" t="s">
         <v>66</v>
       </c>
@@ -2709,17 +2971,29 @@
         <v>67</v>
       </c>
       <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="D33" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="41"/>
+      <c r="J33" s="41"/>
+      <c r="K33" s="41"/>
+      <c r="L33" s="41"/>
+      <c r="M33" s="41"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A34" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="V22:V24 T8 V4:V20" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>